--- a/rosters/2023/Charlotte/Charlotte.xlsx
+++ b/rosters/2023/Charlotte/Charlotte.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
   <si>
     <t>No.</t>
   </si>
@@ -46,147 +46,144 @@
     <t>bbref url</t>
   </si>
   <si>
-    <t>Mason Plumlee</t>
-  </si>
-  <si>
-    <t>Jalen McDaniels</t>
-  </si>
-  <si>
     <t>P.J. Washington</t>
   </si>
   <si>
+    <t>Terry Rozier</t>
+  </si>
+  <si>
+    <t>JT Thor</t>
+  </si>
+  <si>
     <t>Nick Richards</t>
   </si>
   <si>
+    <t>Dennis Smith Jr.</t>
+  </si>
+  <si>
+    <t>Théo Maledon (TW)</t>
+  </si>
+  <si>
     <t>Kelly Oubre Jr.</t>
   </si>
   <si>
-    <t>Théo Maledon (TW)</t>
-  </si>
-  <si>
-    <t>Terry Rozier</t>
-  </si>
-  <si>
-    <t>JT Thor</t>
+    <t>Gordon Hayward</t>
+  </si>
+  <si>
+    <t>LaMelo Ball</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Kai Jones</t>
   </si>
   <si>
     <t>James Bouknight</t>
   </si>
   <si>
-    <t>Kai Jones</t>
-  </si>
-  <si>
-    <t>Gordon Hayward</t>
-  </si>
-  <si>
-    <t>Dennis Smith Jr.</t>
-  </si>
-  <si>
-    <t>LaMelo Ball</t>
-  </si>
-  <si>
     <t>Bryce McGowens (TW)</t>
   </si>
   <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
     <t>Cody Martin</t>
   </si>
   <si>
+    <t>Reggie Jackson</t>
+  </si>
+  <si>
+    <t>Svi Mykhailiuk</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SG</t>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>6-10</t>
+  </si>
+  <si>
+    <t>7-0</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>7-1</t>
   </si>
   <si>
     <t>6-11</t>
   </si>
   <si>
-    <t>6-9</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>7-0</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>6-10</t>
-  </si>
-  <si>
     <t>6-5</t>
   </si>
   <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>7-1</t>
-  </si>
-  <si>
-    <t>March 5, 1990</t>
-  </si>
-  <si>
-    <t>January 31, 1998</t>
-  </si>
-  <si>
     <t>August 23, 1998</t>
   </si>
   <si>
+    <t>March 17, 1994</t>
+  </si>
+  <si>
+    <t>August 26, 2002</t>
+  </si>
+  <si>
     <t>November 29, 1997</t>
   </si>
   <si>
+    <t>November 25, 1997</t>
+  </si>
+  <si>
+    <t>June 12, 2001</t>
+  </si>
+  <si>
     <t>December 9, 1995</t>
   </si>
   <si>
-    <t>June 12, 2001</t>
-  </si>
-  <si>
-    <t>March 17, 1994</t>
-  </si>
-  <si>
-    <t>August 26, 2002</t>
+    <t>March 23, 1990</t>
+  </si>
+  <si>
+    <t>August 22, 2001</t>
+  </si>
+  <si>
+    <t>December 16, 2001</t>
+  </si>
+  <si>
+    <t>January 19, 2001</t>
   </si>
   <si>
     <t>September 18, 2000</t>
   </si>
   <si>
-    <t>January 19, 2001</t>
-  </si>
-  <si>
-    <t>March 23, 1990</t>
-  </si>
-  <si>
-    <t>November 25, 1997</t>
-  </si>
-  <si>
-    <t>August 22, 2001</t>
-  </si>
-  <si>
     <t>November 8, 2002</t>
   </si>
   <si>
-    <t>December 16, 2001</t>
-  </si>
-  <si>
     <t>September 28, 1995</t>
   </si>
   <si>
+    <t>April 16, 1990</t>
+  </si>
+  <si>
+    <t>June 10, 1997</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
@@ -199,112 +196,121 @@
     <t>bs</t>
   </si>
   <si>
-    <t>9</t>
+    <t>it</t>
+  </si>
+  <si>
+    <t>ua</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>5</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
     <t>Duke</t>
   </si>
   <si>
-    <t>San Diego State</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>Auburn</t>
+    <t>Texas</t>
   </si>
   <si>
     <t>UConn</t>
   </si>
   <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Butler</t>
-  </si>
-  <si>
-    <t>NC State</t>
-  </si>
-  <si>
     <t>Nebraska</t>
   </si>
   <si>
     <t>NC State, Nevada</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/p/plumlma01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/mcdanja01.html</t>
+    <t>Boston College</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/washipj01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/r/roziete01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/t/thorjt01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/r/richani01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/s/smithde03.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/maledth01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/o/oubreke01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/maledth01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/r/roziete01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/t/thorjt01.html</t>
+    <t>https://www.basketball-reference.com/players/h/haywago01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/ballla01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/w/willima07.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/joneska01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/bouknja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/j/joneska01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/haywago01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/s/smithde03.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/ballla01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/mcgowbr01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/willima07.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/martico01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/jacksre01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/mykhasv01.html</t>
   </si>
 </sst>
 </file>
@@ -718,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -730,22 +736,22 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -753,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -765,22 +771,22 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -788,34 +794,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
       </c>
       <c r="F4">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -829,7 +835,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
@@ -838,19 +844,19 @@
         <v>245</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
         <v>71</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -858,34 +864,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -902,22 +908,22 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>175</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -925,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -934,25 +940,25 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F8">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -960,34 +966,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F9">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -995,34 +1001,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F10">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
         <v>65</v>
       </c>
-      <c r="J10" t="s">
-        <v>75</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1030,34 +1033,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1065,34 +1068,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1100,34 +1103,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
       </c>
       <c r="F13">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1135,31 +1138,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="J14" t="s">
+        <v>80</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1167,7 +1173,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -1176,95 +1182,89 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J16" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>11</v>
-      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F17">
         <v>205</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/rosters/2023/Charlotte/Charlotte.xlsx
+++ b/rosters/2023/Charlotte/Charlotte.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="93">
   <si>
     <t>No.</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Cody Martin</t>
   </si>
   <si>
-    <t>Reggie Jackson</t>
-  </si>
-  <si>
     <t>Svi Mykhailiuk</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>September 28, 1995</t>
   </si>
   <si>
-    <t>April 16, 1990</t>
-  </si>
-  <si>
     <t>June 10, 1997</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
     <t>bs</t>
   </si>
   <si>
-    <t>it</t>
-  </si>
-  <si>
     <t>ua</t>
   </si>
   <si>
@@ -223,9 +214,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -262,9 +250,6 @@
     <t>NC State, Nevada</t>
   </si>
   <si>
-    <t>Boston College</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/w/washipj01.html</t>
   </si>
   <si>
@@ -305,9 +290,6 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/martico01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/j/jacksre01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/mykhasv01.html</t>
@@ -681,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,28 +712,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>230</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -765,28 +747,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>190</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -800,28 +782,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>205</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -835,28 +817,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>245</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -870,28 +852,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>205</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -905,25 +887,25 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>175</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -937,28 +919,28 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
       </c>
       <c r="F8">
         <v>203</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -972,28 +954,28 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
       </c>
       <c r="F9">
         <v>225</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1007,25 +989,25 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>180</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1039,28 +1021,28 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11">
         <v>241</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1074,28 +1056,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>218</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1109,28 +1091,28 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>190</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1144,28 +1126,28 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14">
         <v>179</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1179,34 +1161,37 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15">
         <v>205</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
@@ -1214,57 +1199,25 @@
         <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F16">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17">
-        <v>205</v>
-      </c>
-      <c r="G17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1237,6 @@
     <hyperlink ref="K14" r:id="rId13"/>
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
-    <hyperlink ref="K17" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Charlotte/Charlotte.xlsx
+++ b/rosters/2023/Charlotte/Charlotte.xlsx
@@ -61,30 +61,30 @@
     <t>Dennis Smith Jr.</t>
   </si>
   <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>Gordon Hayward</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>LaMelo Ball</t>
+  </si>
+  <si>
     <t>Théo Maledon (TW)</t>
   </si>
   <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Gordon Hayward</t>
-  </si>
-  <si>
-    <t>LaMelo Ball</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
     <t>Kai Jones</t>
   </si>
   <si>
+    <t>Bryce McGowens</t>
+  </si>
+  <si>
     <t>James Bouknight</t>
   </si>
   <si>
-    <t>Bryce McGowens (TW)</t>
-  </si>
-  <si>
     <t>Cody Martin</t>
   </si>
   <si>
@@ -121,12 +121,12 @@
     <t>6-2</t>
   </si>
   <si>
+    <t>7-1</t>
+  </si>
+  <si>
     <t>6-4</t>
   </si>
   <si>
-    <t>7-1</t>
-  </si>
-  <si>
     <t>6-11</t>
   </si>
   <si>
@@ -148,30 +148,30 @@
     <t>November 25, 1997</t>
   </si>
   <si>
+    <t>December 9, 1995</t>
+  </si>
+  <si>
+    <t>March 23, 1990</t>
+  </si>
+  <si>
+    <t>December 16, 2001</t>
+  </si>
+  <si>
+    <t>August 22, 2001</t>
+  </si>
+  <si>
     <t>June 12, 2001</t>
   </si>
   <si>
-    <t>December 9, 1995</t>
-  </si>
-  <si>
-    <t>March 23, 1990</t>
-  </si>
-  <si>
-    <t>August 22, 2001</t>
-  </si>
-  <si>
-    <t>December 16, 2001</t>
-  </si>
-  <si>
     <t>January 19, 2001</t>
   </si>
   <si>
+    <t>November 8, 2002</t>
+  </si>
+  <si>
     <t>September 18, 2000</t>
   </si>
   <si>
-    <t>November 8, 2002</t>
-  </si>
-  <si>
     <t>September 28, 1995</t>
   </si>
   <si>
@@ -241,12 +241,12 @@
     <t>Texas</t>
   </si>
   <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
     <t>UConn</t>
   </si>
   <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
     <t>NC State, Nevada</t>
   </si>
   <si>
@@ -265,28 +265,28 @@
     <t>https://www.basketball-reference.com/players/s/smithde03.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/o/oubreke01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/h/haywago01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/w/willima07.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/ballla01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/maledth01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/o/oubreke01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/haywago01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/ballla01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/willima07.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/j/joneska01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/mcgowbr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/bouknja01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/mcgowbr01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/martico01.html</t>
@@ -881,28 +881,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>83</v>
@@ -913,7 +916,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -925,7 +928,7 @@
         <v>30</v>
       </c>
       <c r="F8">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -934,10 +937,10 @@
         <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>84</v>
@@ -948,19 +951,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F9">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -969,10 +972,10 @@
         <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>85</v>
@@ -1015,31 +1018,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
       </c>
       <c r="F11">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>87</v>
@@ -1085,7 +1085,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -1094,10 +1094,10 @@
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F13">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -1106,7 +1106,7 @@
         <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
         <v>75</v>
@@ -1120,7 +1120,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1129,10 +1129,10 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="G14" t="s">
         <v>51</v>
@@ -1141,7 +1141,7 @@
         <v>54</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J14" t="s">
         <v>76</v>

--- a/rosters/2023/Charlotte/Charlotte.xlsx
+++ b/rosters/2023/Charlotte/Charlotte.xlsx
@@ -67,30 +67,30 @@
     <t>Gordon Hayward</t>
   </si>
   <si>
+    <t>Kai Jones</t>
+  </si>
+  <si>
     <t>Mark Williams</t>
   </si>
   <si>
+    <t>Bryce McGowens</t>
+  </si>
+  <si>
     <t>LaMelo Ball</t>
   </si>
   <si>
     <t>Théo Maledon (TW)</t>
   </si>
   <si>
-    <t>Kai Jones</t>
-  </si>
-  <si>
-    <t>Bryce McGowens</t>
-  </si>
-  <si>
     <t>James Bouknight</t>
   </si>
   <si>
+    <t>Svi Mykhailiuk</t>
+  </si>
+  <si>
     <t>Cody Martin</t>
   </si>
   <si>
-    <t>Svi Mykhailiuk</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
@@ -121,15 +121,15 @@
     <t>6-2</t>
   </si>
   <si>
+    <t>6-11</t>
+  </si>
+  <si>
     <t>7-1</t>
   </si>
   <si>
     <t>6-4</t>
   </si>
   <si>
-    <t>6-11</t>
-  </si>
-  <si>
     <t>6-5</t>
   </si>
   <si>
@@ -154,42 +154,42 @@
     <t>March 23, 1990</t>
   </si>
   <si>
+    <t>January 19, 2001</t>
+  </si>
+  <si>
     <t>December 16, 2001</t>
   </si>
   <si>
+    <t>November 8, 2002</t>
+  </si>
+  <si>
     <t>August 22, 2001</t>
   </si>
   <si>
     <t>June 12, 2001</t>
   </si>
   <si>
-    <t>January 19, 2001</t>
-  </si>
-  <si>
-    <t>November 8, 2002</t>
-  </si>
-  <si>
     <t>September 18, 2000</t>
   </si>
   <si>
+    <t>June 10, 1997</t>
+  </si>
+  <si>
     <t>September 28, 1995</t>
   </si>
   <si>
-    <t>June 10, 1997</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
     <t>jm</t>
   </si>
   <si>
+    <t>bs</t>
+  </si>
+  <si>
     <t>fr</t>
   </si>
   <si>
-    <t>bs</t>
-  </si>
-  <si>
     <t>ua</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>Butler</t>
   </si>
   <si>
+    <t>Texas</t>
+  </si>
+  <si>
     <t>Duke</t>
   </si>
   <si>
-    <t>Texas</t>
-  </si>
-  <si>
     <t>Nebraska</t>
   </si>
   <si>
@@ -271,28 +271,28 @@
     <t>https://www.basketball-reference.com/players/h/haywago01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/j/joneska01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/willima07.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/mcgowbr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/ballla01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/maledth01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/j/joneska01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/mcgowbr01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/bouknja01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/mykhasv01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/martico01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/mykhasv01.html</t>
   </si>
 </sst>
 </file>
@@ -951,7 +951,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -963,16 +963,16 @@
         <v>35</v>
       </c>
       <c r="F9">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J9" t="s">
         <v>73</v>
@@ -986,19 +986,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -1007,7 +1007,10 @@
         <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>74</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>86</v>
@@ -1018,28 +1021,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>87</v>
@@ -1050,31 +1056,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>88</v>
@@ -1085,31 +1088,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F13">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>89</v>
@@ -1155,7 +1155,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -1164,7 +1164,7 @@
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F15">
         <v>205</v>
@@ -1173,13 +1173,13 @@
         <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>91</v>
@@ -1190,7 +1190,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -1199,7 +1199,7 @@
         <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>205</v>
@@ -1208,13 +1208,13 @@
         <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>92</v>

--- a/rosters/2023/Charlotte/Charlotte.xlsx
+++ b/rosters/2023/Charlotte/Charlotte.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
   <si>
     <t>No.</t>
   </si>
@@ -49,39 +49,39 @@
     <t>P.J. Washington</t>
   </si>
   <si>
+    <t>JT Thor</t>
+  </si>
+  <si>
+    <t>Nick Richards</t>
+  </si>
+  <si>
     <t>Terry Rozier</t>
   </si>
   <si>
-    <t>JT Thor</t>
-  </si>
-  <si>
-    <t>Nick Richards</t>
-  </si>
-  <si>
     <t>Dennis Smith Jr.</t>
   </si>
   <si>
+    <t>Gordon Hayward</t>
+  </si>
+  <si>
     <t>Kelly Oubre Jr.</t>
   </si>
   <si>
-    <t>Gordon Hayward</t>
+    <t>Bryce McGowens</t>
   </si>
   <si>
     <t>Kai Jones</t>
   </si>
   <si>
+    <t>Théo Maledon (TW)</t>
+  </si>
+  <si>
     <t>Mark Williams</t>
   </si>
   <si>
-    <t>Bryce McGowens</t>
-  </si>
-  <si>
     <t>LaMelo Ball</t>
   </si>
   <si>
-    <t>Théo Maledon (TW)</t>
-  </si>
-  <si>
     <t>James Bouknight</t>
   </si>
   <si>
@@ -91,15 +91,21 @@
     <t>Cody Martin</t>
   </si>
   <si>
+    <t>Kobi Simmons</t>
+  </si>
+  <si>
+    <t>Xavier Sneed (TW)</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -109,66 +115,66 @@
     <t>6-7</t>
   </si>
   <si>
+    <t>6-10</t>
+  </si>
+  <si>
+    <t>7-0</t>
+  </si>
+  <si>
     <t>6-1</t>
   </si>
   <si>
-    <t>6-10</t>
-  </si>
-  <si>
-    <t>7-0</t>
-  </si>
-  <si>
     <t>6-2</t>
   </si>
   <si>
     <t>6-11</t>
   </si>
   <si>
+    <t>6-4</t>
+  </si>
+  <si>
     <t>7-1</t>
   </si>
   <si>
-    <t>6-4</t>
-  </si>
-  <si>
     <t>6-5</t>
   </si>
   <si>
     <t>August 23, 1998</t>
   </si>
   <si>
+    <t>August 26, 2002</t>
+  </si>
+  <si>
+    <t>November 29, 1997</t>
+  </si>
+  <si>
     <t>March 17, 1994</t>
   </si>
   <si>
-    <t>August 26, 2002</t>
-  </si>
-  <si>
-    <t>November 29, 1997</t>
-  </si>
-  <si>
     <t>November 25, 1997</t>
   </si>
   <si>
+    <t>March 23, 1990</t>
+  </si>
+  <si>
     <t>December 9, 1995</t>
   </si>
   <si>
-    <t>March 23, 1990</t>
+    <t>November 8, 2002</t>
   </si>
   <si>
     <t>January 19, 2001</t>
   </si>
   <si>
+    <t>June 12, 2001</t>
+  </si>
+  <si>
     <t>December 16, 2001</t>
   </si>
   <si>
-    <t>November 8, 2002</t>
-  </si>
-  <si>
     <t>August 22, 2001</t>
   </si>
   <si>
-    <t>June 12, 2001</t>
-  </si>
-  <si>
     <t>September 18, 2000</t>
   </si>
   <si>
@@ -178,6 +184,12 @@
     <t>September 28, 1995</t>
   </si>
   <si>
+    <t>July 4, 1997</t>
+  </si>
+  <si>
+    <t>December 21, 1997</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
@@ -196,15 +208,15 @@
     <t>3</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -220,19 +232,22 @@
     <t>Kentucky</t>
   </si>
   <si>
+    <t>Auburn</t>
+  </si>
+  <si>
     <t>Louisville</t>
   </si>
   <si>
-    <t>Auburn</t>
-  </si>
-  <si>
     <t>NC State</t>
   </si>
   <si>
+    <t>Butler</t>
+  </si>
+  <si>
     <t>Kansas</t>
   </si>
   <si>
-    <t>Butler</t>
+    <t>Nebraska</t>
   </si>
   <si>
     <t>Texas</t>
@@ -241,51 +256,54 @@
     <t>Duke</t>
   </si>
   <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
     <t>UConn</t>
   </si>
   <si>
     <t>NC State, Nevada</t>
   </si>
   <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Kansas State</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/washipj01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/t/thorjt01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/r/richani01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/r/roziete01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/t/thorjt01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/r/richani01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/s/smithde03.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/haywago01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/o/oubreke01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/haywago01.html</t>
+    <t>https://www.basketball-reference.com/players/m/mcgowbr01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/j/joneska01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/maledth01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/willima07.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/mcgowbr01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/ballla01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/maledth01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/bouknja01.html</t>
   </si>
   <si>
@@ -293,6 +311,12 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/martico01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/s/simmoko01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/s/sneedxa01.html</t>
   </si>
 </sst>
 </file>
@@ -663,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,28 +736,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>230</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -741,34 +765,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -776,34 +800,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -811,34 +835,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -852,28 +876,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>205</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -881,34 +905,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -916,34 +940,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -951,34 +975,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -986,34 +1010,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1021,34 +1045,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F11">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
         <v>65</v>
       </c>
-      <c r="J11" t="s">
-        <v>75</v>
-      </c>
       <c r="K11" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1056,7 +1077,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1065,22 +1086,25 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F12">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="J12" t="s">
+        <v>79</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1088,31 +1112,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F13">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1126,28 +1150,28 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14">
         <v>190</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1161,28 +1185,28 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F15">
         <v>205</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1196,28 +1220,98 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F16">
         <v>205</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>215</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1237,6 +1331,8 @@
     <hyperlink ref="K14" r:id="rId13"/>
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
+    <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
